--- a/RailIndexPrj/4_18国家铁路省、市、自治区客运量.xlsx
+++ b/RailIndexPrj/4_18国家铁路省、市、自治区客运量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,6 +261,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +496,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -778,16 +781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +891,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -989,9 +992,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>23011</v>
+        <v>1962</v>
       </c>
       <c r="B3" s="10">
         <v>74067</v>
@@ -1082,9 +1085,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
-        <v>23376</v>
+        <v>1963</v>
       </c>
       <c r="B4" s="13">
         <v>51478</v>
@@ -1175,9 +1178,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
-        <v>23742</v>
+        <v>1964</v>
       </c>
       <c r="B5" s="13">
         <v>44618</v>
@@ -1268,9 +1271,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>24107</v>
+        <v>1965</v>
       </c>
       <c r="B6" s="13">
         <v>40708</v>
@@ -1361,9 +1364,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>24472</v>
+        <v>1966</v>
       </c>
       <c r="B7" s="10">
         <v>40830</v>
@@ -1454,9 +1457,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>24837</v>
+        <v>1967</v>
       </c>
       <c r="B8" s="13">
         <v>45982</v>
@@ -1547,9 +1550,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>25203</v>
+        <v>1968</v>
       </c>
       <c r="B9" s="13">
         <v>49308</v>
@@ -1640,9 +1643,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>25568</v>
+        <v>1969</v>
       </c>
       <c r="B10" s="13">
         <v>51296</v>
@@ -1733,9 +1736,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
-        <v>25933</v>
+        <v>1970</v>
       </c>
       <c r="B11" s="16">
         <v>51646</v>
@@ -1828,9 +1831,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
-        <v>26298</v>
+        <v>1971</v>
       </c>
       <c r="B12" s="10">
         <v>55182</v>
@@ -1923,9 +1926,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>26664</v>
+        <v>1972</v>
       </c>
       <c r="B13" s="13">
         <v>61220</v>
@@ -2018,9 +2021,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
-        <v>27029</v>
+        <v>1973</v>
       </c>
       <c r="B14" s="13">
         <v>64781</v>
@@ -2113,9 +2116,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
-        <v>27394</v>
+        <v>1974</v>
       </c>
       <c r="B15" s="13">
         <v>66040</v>
@@ -2208,9 +2211,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
-        <v>27759</v>
+        <v>1975</v>
       </c>
       <c r="B16" s="16">
         <v>69648</v>
@@ -2303,9 +2306,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
-        <v>28125</v>
+        <v>1976</v>
       </c>
       <c r="B17" s="10">
         <v>70489</v>
@@ -2398,9 +2401,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
-        <v>28490</v>
+        <v>1977</v>
       </c>
       <c r="B18" s="13">
         <v>78662</v>
@@ -2493,9 +2496,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
-        <v>28855</v>
+        <v>1978</v>
       </c>
       <c r="B19" s="13">
         <v>80729</v>
@@ -2588,9 +2591,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>29220</v>
+        <v>1979</v>
       </c>
       <c r="B20" s="13">
         <v>85611</v>
@@ -2683,9 +2686,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>29586</v>
+        <v>1980</v>
       </c>
       <c r="B21" s="16">
         <v>91246</v>
@@ -2778,9 +2781,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>29951</v>
+        <v>1981</v>
       </c>
       <c r="B22" s="10">
         <v>94239</v>
@@ -2873,9 +2876,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
-        <v>30316</v>
+        <v>1982</v>
       </c>
       <c r="B23" s="13">
         <v>98888</v>
@@ -2968,9 +2971,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>30681</v>
+        <v>1983</v>
       </c>
       <c r="B24" s="13">
         <v>104946</v>
@@ -3063,9 +3066,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>31047</v>
+        <v>1984</v>
       </c>
       <c r="B25" s="13">
         <v>112265</v>
@@ -3158,9 +3161,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
-        <v>31412</v>
+        <v>1985</v>
       </c>
       <c r="B26" s="16">
         <v>110913</v>
@@ -3253,9 +3256,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>31777</v>
+        <v>1986</v>
       </c>
       <c r="B27" s="10">
         <v>107358</v>
@@ -3348,9 +3351,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
-        <v>32142</v>
+        <v>1987</v>
       </c>
       <c r="B28" s="13">
         <v>111414</v>
@@ -3443,9 +3446,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
-        <v>32508</v>
+        <v>1988</v>
       </c>
       <c r="B29" s="13">
         <v>121595</v>
@@ -3538,9 +3541,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
-        <v>32873</v>
+        <v>1989</v>
       </c>
       <c r="B30" s="13">
         <v>112798</v>
@@ -3635,9 +3638,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
-        <v>33238</v>
+        <v>1990</v>
       </c>
       <c r="B31" s="16">
         <v>94888</v>
@@ -3732,9 +3735,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
-        <v>33603</v>
+        <v>1991</v>
       </c>
       <c r="B32" s="10">
         <v>94208</v>
@@ -3829,9 +3832,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
-        <v>33969</v>
+        <v>1992</v>
       </c>
       <c r="B33" s="13">
         <v>98788</v>
@@ -3926,9 +3929,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
-        <v>34334</v>
+        <v>1993</v>
       </c>
       <c r="B34" s="13">
         <v>104580</v>
@@ -4023,9 +4026,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
-        <v>34699</v>
+        <v>1994</v>
       </c>
       <c r="B35" s="13">
         <v>108009</v>
@@ -4120,9 +4123,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
-        <v>35064</v>
+        <v>1995</v>
       </c>
       <c r="B36" s="16">
         <v>102081</v>
@@ -4217,9 +4220,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
-        <v>35430</v>
+        <v>1996</v>
       </c>
       <c r="B37" s="10">
         <v>93551</v>
@@ -4314,9 +4317,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
-        <v>35795</v>
+        <v>1997</v>
       </c>
       <c r="B38" s="13">
         <v>91919</v>
@@ -4413,9 +4416,9 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
-        <v>36160</v>
+        <v>1998</v>
       </c>
       <c r="B39" s="13">
         <v>92991</v>
@@ -4512,9 +4515,9 @@
         <v>757</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
-        <v>36525</v>
+        <v>1999</v>
       </c>
       <c r="B40" s="13">
         <v>97725</v>
@@ -4611,9 +4614,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
-        <v>36891</v>
+        <v>2000</v>
       </c>
       <c r="B41" s="16">
         <v>101847</v>
@@ -4710,9 +4713,9 @@
         <v>943</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
-        <v>37256</v>
+        <v>2001</v>
       </c>
       <c r="B42" s="10">
         <v>101680</v>
@@ -4809,9 +4812,9 @@
         <v>883</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
-        <v>37621</v>
+        <v>2002</v>
       </c>
       <c r="B43" s="13">
         <v>101741</v>
@@ -4908,9 +4911,9 @@
         <v>919</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
-        <v>37986</v>
+        <v>2003</v>
       </c>
       <c r="B44" s="13">
         <v>93634</v>
@@ -5007,9 +5010,9 @@
         <v>852</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
-        <v>38352</v>
+        <v>2004</v>
       </c>
       <c r="B45" s="13">
         <v>107346</v>
@@ -5106,9 +5109,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
-        <v>38717</v>
+        <v>2005</v>
       </c>
       <c r="B46" s="16">
         <v>110651</v>
@@ -5203,9 +5206,9 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
-        <v>39082</v>
+        <v>2006</v>
       </c>
       <c r="B47" s="10">
         <v>119728</v>
@@ -5302,9 +5305,9 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
-        <v>39447</v>
+        <v>2007</v>
       </c>
       <c r="B48" s="13">
         <f t="shared" ref="B48" si="0">SUM(C48:AG48)</f>
@@ -5402,9 +5405,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
-        <v>39813</v>
+        <v>2008</v>
       </c>
       <c r="B49" s="13">
         <v>144452</v>
@@ -5503,9 +5506,9 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
-        <v>40178</v>
+        <v>2009</v>
       </c>
       <c r="B50" s="13">
         <v>150797</v>
@@ -5604,9 +5607,9 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
-        <v>40543</v>
+        <v>2010</v>
       </c>
       <c r="B51" s="16">
         <v>164761</v>
@@ -5705,9 +5708,9 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
-        <v>40908</v>
+        <v>2011</v>
       </c>
       <c r="B52" s="19">
         <v>179158</v>
@@ -5806,9 +5809,9 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
-        <v>41274</v>
+        <v>2012</v>
       </c>
       <c r="B53" s="13">
         <v>187847</v>
@@ -5907,9 +5910,9 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
-        <v>41639</v>
+        <v>2013</v>
       </c>
       <c r="B54" s="13">
         <v>207534</v>
@@ -6008,9 +6011,9 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
-        <v>42004</v>
+        <v>2014</v>
       </c>
       <c r="B55" s="13">
         <v>232377</v>

--- a/RailIndexPrj/4_18国家铁路省、市、自治区客运量.xlsx
+++ b/RailIndexPrj/4_18国家铁路省、市、自治区客运量.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuzhi\Documents\R\work-directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目\6个人\railwayIdx-develop - 1201\RailIndexPrj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,9 +261,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +493,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,16 +778,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
@@ -992,9 +989,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
-        <v>1962</v>
+        <v>23011</v>
       </c>
       <c r="B3" s="10">
         <v>74067</v>
@@ -1085,9 +1082,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
-        <v>1963</v>
+        <v>23376</v>
       </c>
       <c r="B4" s="13">
         <v>51478</v>
@@ -1178,9 +1175,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
-        <v>1964</v>
+        <v>23742</v>
       </c>
       <c r="B5" s="13">
         <v>44618</v>
@@ -1271,9 +1268,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
-        <v>1965</v>
+        <v>24107</v>
       </c>
       <c r="B6" s="13">
         <v>40708</v>
@@ -1364,9 +1361,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
-        <v>1966</v>
+        <v>24472</v>
       </c>
       <c r="B7" s="10">
         <v>40830</v>
@@ -1457,9 +1454,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
-        <v>1967</v>
+        <v>24837</v>
       </c>
       <c r="B8" s="13">
         <v>45982</v>
@@ -1550,9 +1547,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
-        <v>1968</v>
+        <v>25203</v>
       </c>
       <c r="B9" s="13">
         <v>49308</v>
@@ -1643,9 +1640,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
-        <v>1969</v>
+        <v>25568</v>
       </c>
       <c r="B10" s="13">
         <v>51296</v>
@@ -1736,9 +1733,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
-        <v>1970</v>
+        <v>25933</v>
       </c>
       <c r="B11" s="16">
         <v>51646</v>
@@ -1831,9 +1828,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
-        <v>1971</v>
+        <v>26298</v>
       </c>
       <c r="B12" s="10">
         <v>55182</v>
@@ -1926,9 +1923,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
-        <v>1972</v>
+        <v>26664</v>
       </c>
       <c r="B13" s="13">
         <v>61220</v>
@@ -2021,9 +2018,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
-        <v>1973</v>
+        <v>27029</v>
       </c>
       <c r="B14" s="13">
         <v>64781</v>
@@ -2116,9 +2113,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
-        <v>1974</v>
+        <v>27394</v>
       </c>
       <c r="B15" s="13">
         <v>66040</v>
@@ -2211,9 +2208,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
-        <v>1975</v>
+        <v>27759</v>
       </c>
       <c r="B16" s="16">
         <v>69648</v>
@@ -2306,9 +2303,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
-        <v>1976</v>
+        <v>28125</v>
       </c>
       <c r="B17" s="10">
         <v>70489</v>
@@ -2401,9 +2398,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
-        <v>1977</v>
+        <v>28490</v>
       </c>
       <c r="B18" s="13">
         <v>78662</v>
@@ -2496,9 +2493,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A19" s="21">
-        <v>1978</v>
+        <v>28855</v>
       </c>
       <c r="B19" s="13">
         <v>80729</v>
@@ -2591,9 +2588,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A20" s="21">
-        <v>1979</v>
+        <v>29220</v>
       </c>
       <c r="B20" s="13">
         <v>85611</v>
@@ -2686,9 +2683,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A21" s="21">
-        <v>1980</v>
+        <v>29586</v>
       </c>
       <c r="B21" s="16">
         <v>91246</v>
@@ -2781,9 +2778,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A22" s="21">
-        <v>1981</v>
+        <v>29951</v>
       </c>
       <c r="B22" s="10">
         <v>94239</v>
@@ -2876,9 +2873,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A23" s="21">
-        <v>1982</v>
+        <v>30316</v>
       </c>
       <c r="B23" s="13">
         <v>98888</v>
@@ -2971,9 +2968,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A24" s="21">
-        <v>1983</v>
+        <v>30681</v>
       </c>
       <c r="B24" s="13">
         <v>104946</v>
@@ -3066,9 +3063,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A25" s="21">
-        <v>1984</v>
+        <v>31047</v>
       </c>
       <c r="B25" s="13">
         <v>112265</v>
@@ -3161,9 +3158,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A26" s="21">
-        <v>1985</v>
+        <v>31412</v>
       </c>
       <c r="B26" s="16">
         <v>110913</v>
@@ -3256,9 +3253,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A27" s="21">
-        <v>1986</v>
+        <v>31777</v>
       </c>
       <c r="B27" s="10">
         <v>107358</v>
@@ -3351,9 +3348,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A28" s="21">
-        <v>1987</v>
+        <v>32142</v>
       </c>
       <c r="B28" s="13">
         <v>111414</v>
@@ -3446,9 +3443,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A29" s="21">
-        <v>1988</v>
+        <v>32508</v>
       </c>
       <c r="B29" s="13">
         <v>121595</v>
@@ -3541,9 +3538,9 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A30" s="21">
-        <v>1989</v>
+        <v>32873</v>
       </c>
       <c r="B30" s="13">
         <v>112798</v>
@@ -3638,9 +3635,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A31" s="21">
-        <v>1990</v>
+        <v>33238</v>
       </c>
       <c r="B31" s="16">
         <v>94888</v>
@@ -3735,9 +3732,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A32" s="21">
-        <v>1991</v>
+        <v>33603</v>
       </c>
       <c r="B32" s="10">
         <v>94208</v>
@@ -3832,9 +3829,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A33" s="21">
-        <v>1992</v>
+        <v>33969</v>
       </c>
       <c r="B33" s="13">
         <v>98788</v>
@@ -3929,9 +3926,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A34" s="21">
-        <v>1993</v>
+        <v>34334</v>
       </c>
       <c r="B34" s="13">
         <v>104580</v>
@@ -4026,9 +4023,9 @@
         <v>494</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A35" s="21">
-        <v>1994</v>
+        <v>34699</v>
       </c>
       <c r="B35" s="13">
         <v>108009</v>
@@ -4123,9 +4120,9 @@
         <v>575</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A36" s="21">
-        <v>1995</v>
+        <v>35064</v>
       </c>
       <c r="B36" s="16">
         <v>102081</v>
@@ -4220,9 +4217,9 @@
         <v>577</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A37" s="21">
-        <v>1996</v>
+        <v>35430</v>
       </c>
       <c r="B37" s="10">
         <v>93551</v>
@@ -4317,9 +4314,9 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A38" s="21">
-        <v>1997</v>
+        <v>35795</v>
       </c>
       <c r="B38" s="13">
         <v>91919</v>
@@ -4416,9 +4413,9 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A39" s="21">
-        <v>1998</v>
+        <v>36160</v>
       </c>
       <c r="B39" s="13">
         <v>92991</v>
@@ -4515,9 +4512,9 @@
         <v>757</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A40" s="21">
-        <v>1999</v>
+        <v>36525</v>
       </c>
       <c r="B40" s="13">
         <v>97725</v>
@@ -4614,9 +4611,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A41" s="21">
-        <v>2000</v>
+        <v>36891</v>
       </c>
       <c r="B41" s="16">
         <v>101847</v>
@@ -4713,9 +4710,9 @@
         <v>943</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A42" s="21">
-        <v>2001</v>
+        <v>37256</v>
       </c>
       <c r="B42" s="10">
         <v>101680</v>
@@ -4812,9 +4809,9 @@
         <v>883</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A43" s="21">
-        <v>2002</v>
+        <v>37621</v>
       </c>
       <c r="B43" s="13">
         <v>101741</v>
@@ -4911,9 +4908,9 @@
         <v>919</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A44" s="21">
-        <v>2003</v>
+        <v>37986</v>
       </c>
       <c r="B44" s="13">
         <v>93634</v>
@@ -5010,9 +5007,9 @@
         <v>852</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A45" s="21">
-        <v>2004</v>
+        <v>38352</v>
       </c>
       <c r="B45" s="13">
         <v>107346</v>
@@ -5109,9 +5106,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A46" s="21">
-        <v>2005</v>
+        <v>38717</v>
       </c>
       <c r="B46" s="16">
         <v>110651</v>
@@ -5206,9 +5203,9 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A47" s="21">
-        <v>2006</v>
+        <v>39082</v>
       </c>
       <c r="B47" s="10">
         <v>119728</v>
@@ -5305,9 +5302,9 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A48" s="21">
-        <v>2007</v>
+        <v>39447</v>
       </c>
       <c r="B48" s="13">
         <f t="shared" ref="B48" si="0">SUM(C48:AG48)</f>
@@ -5405,9 +5402,9 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A49" s="21">
-        <v>2008</v>
+        <v>39813</v>
       </c>
       <c r="B49" s="13">
         <v>144452</v>
@@ -5506,9 +5503,9 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
-        <v>2009</v>
+        <v>40178</v>
       </c>
       <c r="B50" s="13">
         <v>150797</v>
@@ -5607,9 +5604,9 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
-        <v>2010</v>
+        <v>40543</v>
       </c>
       <c r="B51" s="16">
         <v>164761</v>
@@ -5708,9 +5705,9 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
-        <v>2011</v>
+        <v>40908</v>
       </c>
       <c r="B52" s="19">
         <v>179158</v>
@@ -5809,9 +5806,9 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A53" s="21">
-        <v>2012</v>
+        <v>41274</v>
       </c>
       <c r="B53" s="13">
         <v>187847</v>
@@ -5910,9 +5907,9 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A54" s="21">
-        <v>2013</v>
+        <v>41639</v>
       </c>
       <c r="B54" s="13">
         <v>207534</v>
@@ -6011,9 +6008,9 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A55" s="21">
-        <v>2014</v>
+        <v>42004</v>
       </c>
       <c r="B55" s="13">
         <v>232377</v>
